--- a/biology/Botanique/Hymenosporum_flavum/Hymenosporum_flavum.xlsx
+++ b/biology/Botanique/Hymenosporum_flavum/Hymenosporum_flavum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenosporum flavum
 Le Frangipanier australien (Hymenosporum flavum) est un arbre de la famille des Pittosporaceae. Il est monotypique dans son genre.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il  peut atteindre 20 m de hauteur, partiellement caduc et fleurit au  printemps. Il donne d'abondants bouquets de fleurs odorantes d'environ 5 cm de diamètre. Elles sont de couleur crème au départ et deviennent jaunes en vieillissant. Les fleurs sont suivies par de longues capsules déhiscentes en forme de poire. Les graines sont ailées. Les fleurs attirent les abeilles, les oiseaux se nourrissant de nectar et les papillons. Les feuilles alternes sont vert foncé, luisantes, oblongues et mesurent habituellement 10 cm de long et 4 cm de large.
 Malgré son nom commun, il n'est pas étroitement apparenté au Frangipanier mais est proche du  genre Pittosporum.
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est largement cultivé, se développe généralement à environ 8 mètres de hauteur et a une forme érigée. Il peut être cultivé dans des zones ombragées mais il a ses plus belles fleurs en plein soleil. Il préfère un sol bien drainé, avec une teneur en matière organique élevée.
 </t>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire des forêts humides de Nouvelle-Galles du Sud et du Queensland en Australie et de Nouvelle-Guinée.
 </t>
